--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_93_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_93_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.4612656627034117, 2.0614694498416983]</t>
+          <t>[1.4559510896376477, 2.0667840229074623]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="O2" t="n">
         <v>0.8993948938205012</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.28038417671808924, 0.5932731871791357]</t>
+          <t>[0.2803240645409626, 0.5933332993562623]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.125627916431782e-06</v>
+        <v>1.13391911971128e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.125627916431782e-06</v>
+        <v>1.13391911971128e-06</v>
       </c>
       <c r="W2" t="n">
         <v>19.97333333333378</v>
